--- a/data/income_statement/2digits/size/24_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/24_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>24-Manufacture of basic metals</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>24-Manufacture of basic metals</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,839 +841,949 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>4046761.36735</v>
+        <v>4016016.349520001</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>4974780.691640001</v>
+        <v>5064876.103130001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>6242933.31722</v>
+        <v>6282840.97217</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>6208199.9995</v>
+        <v>6306699.422039999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>8400072.658260001</v>
+        <v>8636510.241950002</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>8767080.25694</v>
+        <v>9079384.2125</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>9130779.50293</v>
+        <v>9797319.581379998</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>8927762.42052</v>
+        <v>9368358.41131</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>10365011.85654</v>
+        <v>10966799.3516</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>26898834.09466</v>
+        <v>27205157.37311</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>25430846.34692</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>27058188.48228</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>29070997.261</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>3330347.72412</v>
+        <v>3271790.95219</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>4179734.15467</v>
+        <v>4226873.31745</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>5263692.84401</v>
+        <v>5270659.0366</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>5211916.358229999</v>
+        <v>5249455.81543</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>7003266.27332</v>
+        <v>7137335.06613</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>7304392.18462</v>
+        <v>7543744.9477</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>7700271.011600001</v>
+        <v>8166213.282690001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>7351319.98491</v>
+        <v>7612214.45681</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>8777185.889590001</v>
+        <v>9230039.441500001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>21628010.87763001</v>
+        <v>21775339.4213</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>19886775.05057</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>21068083.49164</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>22469909.68</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>671779.7381400001</v>
+        <v>694594.4895</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>749575.9632699999</v>
+        <v>785974.78695</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>918074.6471100001</v>
+        <v>955201.16266</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>930834.5921100001</v>
+        <v>983217.80134</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1305489.62945</v>
+        <v>1388277.7539</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1387994.11224</v>
+        <v>1460066.14888</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1356346.54214</v>
+        <v>1538329.50507</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1486619.76562</v>
+        <v>1673843.23491</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>1494785.90355</v>
+        <v>1650305.4506</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>5013985.029420001</v>
+        <v>5171134.214</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>5244861.12673</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>5676863.498780001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>6332100.8</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>44633.90508999999</v>
+        <v>49630.90783</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>45470.57369999999</v>
+        <v>52027.99873000001</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>61165.8261</v>
+        <v>56980.77291</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>65449.04916</v>
+        <v>74025.80527000001</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>91316.75549</v>
+        <v>110897.42192</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>74693.96008</v>
+        <v>75573.11592</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>74161.94919</v>
+        <v>92776.79362000001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>89822.66999000001</v>
+        <v>82300.71959000001</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>93040.0634</v>
+        <v>86454.4595</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>256838.18761</v>
+        <v>258683.73781</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>299210.16962</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>313241.49186</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>268986.781</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>56911.97427</v>
+        <v>56476.76256</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>48204.48637999999</v>
+        <v>47548.37085</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>57665.42903999999</v>
+        <v>57868.00775</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>65432.43986</v>
+        <v>66295.57627000001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>91092.65398999999</v>
+        <v>92961.1026</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>116936.50505</v>
+        <v>119453.5576</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>133827.97546</v>
+        <v>138408.65326</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>129036.82984</v>
+        <v>132080.81196</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>157888.17439</v>
+        <v>163339.6286</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>370433.44388</v>
+        <v>380895.08036</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>310824.6385999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>325584.45498</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>385650.015</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>33366.41869</v>
+        <v>31756.92685</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>30941.01959</v>
+        <v>29915.41948</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>37265.24233</v>
+        <v>37162.84755</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>43414.84583</v>
+        <v>43898.93857</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>51570.57502</v>
+        <v>51932.50579000001</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>58983.04389</v>
+        <v>60935.63598000001</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>71680.37216</v>
+        <v>75261.97731</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>82176.97016</v>
+        <v>81951.78548999999</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>89677.25178000001</v>
+        <v>93606.81301000001</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>198445.94524</v>
+        <v>199005.22967</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>207354.90029</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>218357.61953</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>245392.586</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>14255.87746</v>
+        <v>14747.29368</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>11362.78161</v>
+        <v>11528.87213</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>16721.51277</v>
+        <v>16790.3987</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>18280.17953</v>
+        <v>18513.83736</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>31312.50457</v>
+        <v>31796.86941</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>47288.30208</v>
+        <v>47608.79780000001</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>50289.85875</v>
+        <v>50884.14002</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>37810.00369</v>
+        <v>40382.20894999999</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>60736.30189</v>
+        <v>61432.92748000001</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>138502.82226</v>
+        <v>148282.53098</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>78765.92099000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>80905.9645</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>106800.235</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>9289.67812</v>
+        <v>9972.542029999999</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>5900.685179999999</v>
+        <v>6104.07924</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>3678.67394</v>
+        <v>3914.7615</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>3737.4145</v>
+        <v>3882.80034</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>8209.5744</v>
+        <v>9231.727399999998</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>10665.15908</v>
+        <v>10909.12382</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>11857.74455</v>
+        <v>12262.53593</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>9049.85599</v>
+        <v>9746.817519999999</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>7474.620720000001</v>
+        <v>8299.88811</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>33484.67638</v>
+        <v>33607.31971</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>24703.81732</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>26320.87095</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>33457.194</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>3989849.39308</v>
+        <v>3959539.58696</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>4926576.20526</v>
+        <v>5017327.73228</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>6185267.888180001</v>
+        <v>6224972.96442</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>6142767.55964</v>
+        <v>6240403.84577</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>8308980.00427</v>
+        <v>8543549.139350001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>8650143.75189</v>
+        <v>8959930.654899999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>8996951.527470002</v>
+        <v>9658910.92812</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>8798725.590679999</v>
+        <v>9236277.59935</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>10207123.68215</v>
+        <v>10803459.723</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>26528400.65078</v>
+        <v>26824262.29275</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>25120021.70832</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>26732604.0273</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>28685347.246</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>3535084.97326</v>
+        <v>3510527.2199</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>4469347.03599</v>
+        <v>4549600.79892</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>5563545.120390001</v>
+        <v>5590255.73734</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>5574610.619279999</v>
+        <v>5660642.89806</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>7468588.32449</v>
+        <v>7689441.968450001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>7714493.58088</v>
+        <v>8003677.757590001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>8017939.67917</v>
+        <v>8598722.29741</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>7741883.55412</v>
+        <v>8112853.26637</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>9023119.412219999</v>
+        <v>9505292.375470001</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>23656132.87133</v>
+        <v>23937678.57478</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>22365381.83002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>23834753.68059</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>25153799.925</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>2810246.8095</v>
+        <v>2802707.15394</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>3470609.59104</v>
+        <v>3544261.83734</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>4279881.32131</v>
+        <v>4335982.47276</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>4161291.42527</v>
+        <v>4247873.10678</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>5731725.506150001</v>
+        <v>5915683.514129999</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>6132410.186360001</v>
+        <v>6379917.616</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>6278967.60217</v>
+        <v>6718844.89966</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>5874952.615290001</v>
+        <v>6221958.49967</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>6510496.31366</v>
+        <v>6889506.90631</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>19645493.63832</v>
+        <v>19937269.02991</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>18511384.94762</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>19576103.90889</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>19806701.689</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>632683.40799</v>
+        <v>618563.77091</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>860621.3227100001</v>
+        <v>854651.37238</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1137014.53953</v>
+        <v>1118952.7453</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1268312.41738</v>
+        <v>1263127.50344</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1508677.77748</v>
+        <v>1505727.42672</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1396912.36853</v>
+        <v>1388155.47328</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1597170.29931</v>
+        <v>1653307.96602</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1685453.21747</v>
+        <v>1700837.47916</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>2378312.02338</v>
+        <v>2460359.9546</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>3482641.51312</v>
+        <v>3461772.949229999</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>3451676.25398</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3750439.79186</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>4683986.154</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>61741.53049000001</v>
+        <v>58820.22102</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>96093.60078000001</v>
+        <v>106606.39318</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>82439.44102</v>
+        <v>71790.59972</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>114284.46344</v>
+        <v>114665.05996</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>185014.49281</v>
+        <v>207670.4334</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>131268.88403</v>
+        <v>182533.81941</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>109733.08931</v>
+        <v>194655.04814</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>130977.62948</v>
+        <v>138045.73854</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>110264.21251</v>
+        <v>127461.40444</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>327409.19713</v>
+        <v>336087.39021</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>250320.97948</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>338800.89489</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>476944.533</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>30413.22528</v>
+        <v>30436.07403</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>42022.52146</v>
+        <v>44081.19602</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>64209.81853</v>
+        <v>63529.91956</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>30722.31319</v>
+        <v>34977.22788</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>43170.54805</v>
+        <v>60360.5942</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>53902.14196000001</v>
+        <v>53070.84889999999</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>32068.68838</v>
+        <v>31914.38359</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>50500.09187999999</v>
+        <v>52011.549</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>24046.86267</v>
+        <v>27964.11012</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>200588.52276</v>
+        <v>202549.20543</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>151999.64894</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>169409.08495</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>186167.549</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>454764.41982</v>
+        <v>449012.36706</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>457229.1692699999</v>
+        <v>467726.93336</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>621722.76779</v>
+        <v>634717.2270800001</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>568156.94036</v>
+        <v>579760.9477100001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>840391.67978</v>
+        <v>854107.1709</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>935650.1710099999</v>
+        <v>956252.89731</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>979011.8483</v>
+        <v>1060188.63071</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1056842.03656</v>
+        <v>1123424.33298</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1184004.26993</v>
+        <v>1298167.34753</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2872267.77945</v>
+        <v>2886583.71797</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2754639.8783</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2897850.34671</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3531547.321</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>257181.19324</v>
+        <v>248216.57218</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>273002.15988</v>
+        <v>281308.63146</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>315728.43053</v>
+        <v>315540.1168</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>336028.79738</v>
+        <v>346139.24658</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>454322.71107</v>
+        <v>466001.11615</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>513439.6532</v>
+        <v>529093.1240599999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>524503.21712</v>
+        <v>573336.50489</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>587680.26041</v>
+        <v>616174.69834</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>578101.0359</v>
+        <v>625691.86654</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1208010.89642</v>
+        <v>1233721.11786</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1364949.63485</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1430711.10208</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1470191.626</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>1888.03365</v>
+        <v>1635.84252</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1712.30939</v>
+        <v>1380.99305</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>3515.92138</v>
+        <v>2042.81494</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>2527.61318</v>
+        <v>2535.11355</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>2529.31371</v>
+        <v>1984.1402</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>1357.4677</v>
+        <v>1177.03085</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>1961.57813</v>
+        <v>2086.33277</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>2093.12141</v>
+        <v>2039.06709</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>2626.23854</v>
+        <v>3167.86667</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>4453.75083</v>
+        <v>5767.955449999999</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>6284.916929999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>6309.662069999999</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>13797.348</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>75477.11372000001</v>
+        <v>74669.97944</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>84041.71984999999</v>
+        <v>86516.60701000001</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>96601.43043000001</v>
+        <v>100682.03125</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>107175.72283</v>
+        <v>108402.49688</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>145022.84606</v>
+        <v>150079.66059</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>164271.73292</v>
+        <v>172959.36001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>169400.19897</v>
+        <v>187340.2659</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>183164.31734</v>
+        <v>187358.88832</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>181871.71659</v>
+        <v>192061.68846</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>457036.26047</v>
+        <v>464036.32548</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>509799.43426</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>539958.37349</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>568353.955</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>179816.04587</v>
+        <v>171910.75022</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>187248.13064</v>
+        <v>193411.0314</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>215611.07872</v>
+        <v>212815.27061</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>226325.46137</v>
+        <v>235201.63615</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>306770.5512999999</v>
+        <v>313937.31536</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>347810.45258</v>
+        <v>354956.7332000001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>353141.44002</v>
+        <v>383909.90622</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>402422.82166</v>
+        <v>426776.7429299999</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>393603.08077</v>
+        <v>430462.31141</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>746520.88512</v>
+        <v>763916.8369300001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>848865.28366</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>884443.06652</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>888040.323</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>197583.22658</v>
+        <v>200795.79488</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>184227.00939</v>
+        <v>186418.3019</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>305994.33726</v>
+        <v>319177.11028</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>232128.14298</v>
+        <v>233621.70113</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>386068.96871</v>
+        <v>388106.05475</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>422210.51781</v>
+        <v>427159.77325</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>454508.63118</v>
+        <v>486852.12582</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>469161.77615</v>
+        <v>507249.6346400001</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>605903.2340299999</v>
+        <v>672475.4809900002</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1664256.88303</v>
+        <v>1652862.60011</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1389690.24345</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1467139.24463</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2061355.695</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>119993.27934</v>
+        <v>107496.43961</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>89502.06205000001</v>
+        <v>107189.58673</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>102560.10029</v>
+        <v>97821.38253</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>88817.18361000001</v>
+        <v>105702.05288</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>146630.92015</v>
+        <v>169278.72054</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>163420.52116</v>
+        <v>166784.47661</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>265315.72695</v>
+        <v>286708.54733</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>251160.7328</v>
+        <v>273944.14137</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>234979.34078</v>
+        <v>270754.95775</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>2023364.66918</v>
+        <v>2122134.7685</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>940444.0863600002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1032425.17844</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1660210.249</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>3732.34251</v>
+        <v>835.3425100000001</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>558.8743499999999</v>
+        <v>4413.647430000001</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>168.1205</v>
@@ -1781,52 +1792,57 @@
         <v>521.3010399999999</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>212.50855</v>
+        <v>4215.35622</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>217.15341</v>
+        <v>1737.18207</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>4995.416450000001</v>
+        <v>707.85067</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>16.32531</v>
+        <v>2394.16576</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>5.312399999999999</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>328.70036</v>
+        <v>2812.64836</v>
       </c>
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>56.965</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>363.13764</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>0.07465999999999999</v>
+        <v>0.4263</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>0</v>
+        <v>256.21785</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>0</v>
+        <v>96.21446</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>72.68594999999999</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>7.65</v>
+        <v>5410.53367</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>0</v>
+        <v>4674.89846</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>7.65</v>
@@ -1838,58 +1854,68 @@
         <v>222.03395</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>2079.83817</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>16018.63969</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>12198.62907</v>
+        <v>11344.26959</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>9603.632</v>
+        <v>12168.73015</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>7717.41161</v>
+        <v>7268.49036</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>10674.86811</v>
+        <v>15846.05853</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>12879.53691</v>
+        <v>20811.27416</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>20155.6137</v>
+        <v>19193.72827</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>15628.11895</v>
+        <v>18259.9521</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>14277.26358</v>
+        <v>18622.19313</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>20631.49261</v>
+        <v>26405.95481</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>60249.50466</v>
+        <v>70302.64791</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>65053.52042</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>75729.59654</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>50161.866</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>130.92766</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>908.4594099999999</v>
+        <v>361.06404</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>75.7573</v>
@@ -1901,10 +1927,10 @@
         <v>1440.89548</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>1243.06769</v>
+        <v>796.88091</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>4048.41623</v>
+        <v>4048.39609</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>41.19782</v>
@@ -1913,133 +1939,153 @@
         <v>37.27759</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>6213.483429999999</v>
+        <v>2975.68518</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1909.09457</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>2133.8277</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>2460.011</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>1613.62648</v>
+        <v>1235.86618</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>1640.72149</v>
+        <v>1646.96884</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>1514.85625</v>
+        <v>1393.07775</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>532.50586</v>
+        <v>554.31893</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1903.29107</v>
+        <v>1818.60048</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>1835.13417</v>
+        <v>1802.7097</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>3965.722420000001</v>
+        <v>4508.762880000001</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>24845.17465</v>
+        <v>23680.0858</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>3171.114729999999</v>
+        <v>3751.29711</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>4931.32222</v>
+        <v>4802.403</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>4088.48613</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>8802.77441</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>5281.014</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1046.05036</v>
+        <v>989.8470500000001</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>892.6018299999999</v>
+        <v>871.29044</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>480.8676</v>
+        <v>573.9824</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>396.00515</v>
+        <v>1374.21451</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>1407.48056</v>
+        <v>1403.85707</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1386.0396</v>
+        <v>1474.8132</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>11849.38252</v>
+        <v>4959.951520000001</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>2451.0154</v>
+        <v>2711.48044</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>10287.9766</v>
+        <v>4166.78505</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>1413.01178</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>13830.0942</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>13827.68426</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>25282.525</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>87651.72325</v>
+        <v>82636.19992</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>65544.07906</v>
+        <v>74191.96045999999</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>77443.73444</v>
+        <v>76224.64446000001</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>58887.07197</v>
+        <v>66967.51407</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>106082.8947</v>
+        <v>111180.94061</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>117291.11663</v>
+        <v>115669.92123</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>198840.10671</v>
+        <v>222166.61138</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>180905.17137</v>
+        <v>199385.94885</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>163154.84712</v>
+        <v>195912.46979</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1843494.62797</v>
+        <v>1938617.59235</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>776062.6295599999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>835722.00494</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1488293.786</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>58.10822</v>
@@ -2057,28 +2103,33 @@
         <v>886.18535</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>1914.50881</v>
+        <v>2373.43191</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>2217.92752</v>
+        <v>2218.45214</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>2666.58704</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>3033.76647</v>
+        <v>3034.27417</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>11038.4283</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>5896.796560000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>7516.44471</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>4390.804</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>6.2248</v>
@@ -2105,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>679.64763</v>
+        <v>649.76665</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>0</v>
@@ -2113,245 +2164,280 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>13192.50935</v>
+        <v>9896.516039999999</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>10282.36371</v>
+        <v>13464.24353</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>15092.45354</v>
+        <v>11794.19286</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>16843.234</v>
+        <v>19380.23386</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>21745.44138</v>
+        <v>27448.92502</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>19370.23112</v>
+        <v>18325.26962</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>23769.65235</v>
+        <v>25162.68829</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>25950.34763</v>
+        <v>24434.83253</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>33970.25563</v>
+        <v>36784.17018</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>95473.55650999999</v>
+        <v>89950.31766999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>71523.62675</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>72674.20619000001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>84283.27800000001</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>101299.96644</v>
+        <v>93512.29399999999</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>76743.21966999999</v>
+        <v>85595.87608</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>114829.94468</v>
+        <v>99716.10834999999</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>80246.37242</v>
+        <v>89236.99372999999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>184844.46146</v>
+        <v>199256.05724</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>164192.68411</v>
+        <v>166895.25328</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>307872.61671</v>
+        <v>344099.28586</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>233077.53673</v>
+        <v>243477.22713</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>229750.62816</v>
+        <v>243156.76672</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>2200094.36817</v>
+        <v>2376250.43787</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>840498.4948499999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>931904.5846299999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1449554.764</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>1523.30848</v>
+        <v>1467.68296</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>916.1278899999999</v>
+        <v>940.01748</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>1713.42364</v>
+        <v>1726.03733</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1503.65446</v>
+        <v>1599.29824</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>1224.41352</v>
+        <v>1224.07394</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>4023.69614</v>
+        <v>4138.94719</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>2394.86748</v>
+        <v>2429.81194</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>2762.08223</v>
+        <v>3057.42713</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>2651.37414</v>
+        <v>2761.25878</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>8705.2282</v>
+        <v>8671.124400000001</v>
       </c>
       <c r="M37" s="48" t="n">
         <v>13184.28616</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>15213.254</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>12062.30325</v>
+        <v>11412.96788</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>5964.795510000001</v>
+        <v>6111.74713</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>6744.813649999999</v>
+        <v>6925.47806</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>19145.20904</v>
+        <v>16648.0632</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>15086.74557</v>
+        <v>25365.66826</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>21126.02223000001</v>
+        <v>21255.30217</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>45052.04745</v>
+        <v>46276.22479</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>12963.77351</v>
+        <v>13793.84271</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>11281.7307</v>
+        <v>8743.49574</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>49864.08002</v>
+        <v>96583.88334999997</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>43313.63084</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>44292.40992</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>49869.432</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>422.45187</v>
+        <v>99.99739</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>948.8393199999999</v>
+        <v>934.03866</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>529.95141</v>
+        <v>120.61807</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>2027.0906</v>
+        <v>295.49485</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>223.36482</v>
+        <v>223.21754</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>106.50358</v>
+        <v>106.47236</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>26.65485</v>
+        <v>3846.64202</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>539.28964</v>
+        <v>421.68293</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>5312.72845</v>
+        <v>6431.59506</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>553.93022</v>
+        <v>549.58119</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>13323.21588</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>13359.51335</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>19555.525</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>82018.24063</v>
+        <v>74764.69433</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>62133.46638</v>
+        <v>70090.09784</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>100862.24142</v>
+        <v>86148.07020999999</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>50263.21406999999</v>
+        <v>61640.71792999999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>157567.87949</v>
+        <v>152427.04311</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>131895.41313</v>
+        <v>133547.92651</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>248028.65711</v>
+        <v>270225.49556</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>208417.92169</v>
+        <v>219202.69548</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>196807.18726</v>
+        <v>211548.21891</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>2085362.64855</v>
+        <v>2214580.0908</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>741151.93869</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>826557.5371600001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1330625.859</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>15.164</v>
@@ -2369,28 +2455,33 @@
         <v>1384.57826</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>2291.54213</v>
+        <v>2715.89</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>2696.58399</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>2693.74911</v>
+        <v>2694.03102</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>2776.80082</v>
+        <v>2777.02661</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>12913.47387</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>6812.93502</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>8026.85347</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>5585.566</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>4.87218</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>5253.62603</v>
+        <v>5746.91526</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>6647.47775</v>
+        <v>7387.462149999999</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>4979.514560000001</v>
+        <v>4795.90468</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>7307.20423</v>
+        <v>9053.41949</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>9357.479800000001</v>
+        <v>18631.47613</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>4749.17533</v>
+        <v>5130.38348</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>9673.534180000001</v>
+        <v>18624.25591</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>5700.61629</v>
+        <v>4307.4436</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>10920.80441</v>
+        <v>10895.16924</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>42695.00691999999</v>
+        <v>42952.28387</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>22712.48826</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>26483.98457</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>28705.127</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>96368.62139</v>
+        <v>93973.4896</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>77819.57760999999</v>
+        <v>115560.06935</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>106116.79892</v>
+        <v>121073.65954</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>110088.8399</v>
+        <v>113830.32006</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>142564.50206</v>
+        <v>149817.74038</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>164652.92007</v>
+        <v>184089.06723</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>197581.09484</v>
+        <v>225806.46395</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>207731.40345</v>
+        <v>219726.84152</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>217808.2194</v>
+        <v>277080.8079199999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>683239.91902</v>
+        <v>699852.62061</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>530608.20146</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>634212.4912700001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>539549.985</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>91055.10400000001</v>
+        <v>89571.04048000001</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>74948.55998000001</v>
+        <v>99789.71994999998</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>101625.02011</v>
+        <v>116387.82481</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>100741.79205</v>
+        <v>108801.26074</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>138166.57038</v>
+        <v>142900.54432</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>157504.43203</v>
+        <v>175147.70221</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>187902.47388</v>
+        <v>216541.22896</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>192000.43132</v>
+        <v>202945.77555</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>207644.05275</v>
+        <v>262110.7543</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>629505.44097</v>
+        <v>634308.37636</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>504632.45814</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>551185.1842</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>489817.074</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>5313.517390000001</v>
+        <v>4402.44912</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>2871.01763</v>
+        <v>15770.3494</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>4491.77881</v>
+        <v>4685.83473</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>9347.047849999999</v>
+        <v>5029.059319999999</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>4397.93168</v>
+        <v>6917.19606</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>7148.48804</v>
+        <v>8941.365019999999</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>9678.620959999998</v>
+        <v>9265.234990000001</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>15730.97213</v>
+        <v>16781.06597</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>10164.16665</v>
+        <v>14970.05362</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>53734.47805</v>
+        <v>65544.24425</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>25975.74332</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>83027.30707</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>49732.911</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>119907.91809</v>
+        <v>120806.45089</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>119166.27416</v>
+        <v>92451.94320000001</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>187607.69395</v>
+        <v>196208.72492</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>130610.11427</v>
+        <v>136256.44022</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>205290.92534</v>
+        <v>208310.97767</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>256785.43479</v>
+        <v>242959.92935</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>214370.64658</v>
+        <v>203654.92334</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>279513.56877</v>
+        <v>317989.70736</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>393323.72725</v>
+        <v>422992.8640999999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>804287.2650199999</v>
+        <v>698894.31013</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>959027.6335</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>933447.34717</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1732461.195</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>21226.11894</v>
+        <v>17369.09067</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>43292.02589</v>
+        <v>26060.79415</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>33094.85893</v>
+        <v>27230.52101</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>30797.97996</v>
+        <v>23949.39914</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>37649.29117</v>
+        <v>39537.35422</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>49257.57106</v>
+        <v>42906.99861</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>49677.94226</v>
+        <v>53642.96004</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>123347.24607</v>
+        <v>108850.20509</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>72052.10108000001</v>
+        <v>83461.21828</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>126711.8714</v>
+        <v>118383.30143</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>131082.59674</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>122583.63132</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>189080.743</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>1377.49173</v>
+        <v>476.76197</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>79.14705000000001</v>
+        <v>78.98105000000001</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>320.2077200000001</v>
+        <v>323.03972</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>1893.61751</v>
+        <v>381.5070600000001</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>1020.53628</v>
+        <v>674.2783900000001</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>204.17017</v>
+        <v>304.5568</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1872.94175</v>
+        <v>2133.16324</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>402.881</v>
+        <v>346.77013</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>751.06804</v>
+        <v>947.4547300000002</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>2455.87019</v>
+        <v>1531.38734</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>2044.11918</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>2126.40233</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>1733.773</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>19848.62721</v>
+        <v>16892.3287</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>43212.87884</v>
+        <v>25981.8131</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>32774.65121</v>
+        <v>26907.48129</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>28904.36245</v>
+        <v>23567.89208</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>36628.75489</v>
+        <v>38863.07583</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>49053.40088999999</v>
+        <v>42602.44181</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>47805.00051</v>
+        <v>51509.7968</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>122944.36507</v>
+        <v>108503.43496</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>71301.03303999999</v>
+        <v>82513.76355</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>124256.00121</v>
+        <v>116851.91409</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>129038.47756</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>120457.22899</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>187346.97</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>23164.31324</v>
+        <v>18235.69096</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>28583.75284</v>
+        <v>35271.68501</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>136437.09346</v>
+        <v>118263.66944</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>50796.11365</v>
+        <v>46114.32475000001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>33121.27517</v>
+        <v>37658.23448000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>64360.74991</v>
+        <v>70436.98436999999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>32446.88726</v>
+        <v>38858.13684000001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>247163.46265</v>
+        <v>278975.11818</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>42370.14478</v>
+        <v>75970.47626</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>218679.17569</v>
+        <v>244604.54841</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>97442.02166999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>172552.23165</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>110545.541</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>5597.678349999999</v>
+        <v>6290.025090000001</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>6974.062709999999</v>
+        <v>15432.91205</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>6688.70978</v>
+        <v>4019.123869999999</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>4499.83982</v>
+        <v>9407.866620000001</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>12220.1545</v>
+        <v>13957.50244</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>5945.34371</v>
+        <v>8248.714469999999</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>2368.80856</v>
+        <v>2301.74193</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>13141.06037</v>
+        <v>19221.01028</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>7501.13018</v>
+        <v>38407.7814</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>34487.97625</v>
+        <v>66174.68571999999</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>20572.39048</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>44239.85503</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>22396.407</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>2695.05851</v>
+        <v>2162.63339</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>646.95631</v>
+        <v>694.1595099999998</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>7341.52091</v>
+        <v>6887.273369999999</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>781.6785000000001</v>
+        <v>769.86299</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1629.45551</v>
+        <v>4371.46752</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2209.97483</v>
+        <v>2362.19728</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1321.66892</v>
+        <v>2696.71042</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>3457.23695</v>
+        <v>1364.4869</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>1560.2519</v>
+        <v>649.0131799999999</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>3135.19661</v>
+        <v>2823.27941</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>3094.78001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>3793.5674</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1777.535</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>14871.57638</v>
+        <v>9783.03248</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>20962.73382</v>
+        <v>19144.61345</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>122406.86277</v>
+        <v>107357.2722</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>45514.59533</v>
+        <v>35936.59514</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>19271.66516</v>
+        <v>19329.26452</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>56205.43137</v>
+        <v>59826.07262</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>28756.40978000001</v>
+        <v>33859.68449</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>230565.16533</v>
+        <v>258389.621</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>33308.76270000001</v>
+        <v>36913.68168</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>181056.00283</v>
+        <v>175606.58328</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>73774.85118</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>124518.80922</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>86371.599</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>117969.72379</v>
+        <v>119939.8506</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>133874.54721</v>
+        <v>83241.05234000001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>84265.45942</v>
+        <v>105175.57649</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>110611.98058</v>
+        <v>114091.51461</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>209818.94134</v>
+        <v>210190.09741</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>241682.25594</v>
+        <v>215429.94359</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>231601.70158</v>
+        <v>218439.74654</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>155697.35219</v>
+        <v>147864.79427</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>423005.6835500001</v>
+        <v>430483.60612</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>712319.96073</v>
+        <v>572673.0631500001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>992668.2085699999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>883478.74684</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1810996.397</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>31101.50424</v>
+        <v>31470.33004</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>32409.74787</v>
+        <v>32417.28728</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>41279.4793</v>
+        <v>42602.86134</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>35223.96865</v>
+        <v>37126.41871</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>50390.09913</v>
+        <v>49822.74481</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>56459.87491000001</v>
+        <v>54779.25619000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>58810.42018000001</v>
+        <v>60117.60688</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>61391.22108</v>
+        <v>66170.88996</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>77824.71335999999</v>
+        <v>87109.32623999999</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>213097.43903</v>
+        <v>214260.94332</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>201593.43237</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>211854.35986</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>296352.523</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>86868.21954999999</v>
+        <v>88469.52056</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>101464.79934</v>
+        <v>50823.76506000001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>42985.98012000001</v>
+        <v>62572.71515</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>75388.01193000001</v>
+        <v>76965.09589999999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>159428.84221</v>
+        <v>160367.3526</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>185222.38103</v>
+        <v>160650.6874</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>172791.2814</v>
+        <v>158322.13966</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>94306.13111</v>
+        <v>81693.90431</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>345180.9701900001</v>
+        <v>343374.27988</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>499222.5217</v>
+        <v>358412.11983</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>791074.7762000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>671624.3869800001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1514643.874</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>350</v>
+        <v>274</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>363</v>
+        <v>311</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>394</v>
+        <v>334</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>413</v>
+        <v>352</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>382</v>
+        <v>336</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>415</v>
+        <v>360</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>436</v>
+        <v>381</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>458</v>
+        <v>378</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>486</v>
+        <v>402</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>374</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>